--- a/InputData/trans/SoCDTtiNTY/Share of Cargo Dist Transported that is New This Year.xlsx
+++ b/InputData/trans/SoCDTtiNTY/Share of Cargo Dist Transported that is New This Year.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Dropbox (Energy Innovation)\Documents\EPS_Models by Region\RMI\Nevada\NV_model\InputData\trans\SoCDTtiNTY\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code Repositories\eps-us\InputData\trans\SoCDTtiNTY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E1F35FA-7255-4869-BC34-47410B6E37BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8670" yWindow="105" windowWidth="18735" windowHeight="14130" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="105" windowWidth="21075" windowHeight="10050"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -105,7 +104,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -248,23 +247,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -300,23 +282,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -492,10 +457,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -563,15 +528,13 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -662,25 +625,25 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>6.5000000000000002E-2</v>
+        <v>4.1599999999999998E-2</v>
       </c>
       <c r="C4">
-        <v>6.5000000000000002E-2</v>
+        <v>4.1599999999999998E-2</v>
       </c>
       <c r="D4">
-        <v>6.5000000000000002E-2</v>
+        <v>4.1599999999999998E-2</v>
       </c>
       <c r="E4">
-        <v>6.5000000000000002E-2</v>
+        <v>4.1599999999999998E-2</v>
       </c>
       <c r="F4">
-        <v>6.5000000000000002E-2</v>
+        <v>4.1599999999999998E-2</v>
       </c>
       <c r="G4">
-        <v>6.5000000000000002E-2</v>
+        <v>4.1599999999999998E-2</v>
       </c>
       <c r="H4">
-        <v>6.5000000000000002E-2</v>
+        <v>4.1599999999999998E-2</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -767,15 +730,13 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -866,25 +827,25 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>6.5000000000000002E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="C4">
-        <v>6.5000000000000002E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="D4">
-        <v>6.5000000000000002E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="E4">
-        <v>6.5000000000000002E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="F4">
-        <v>6.5000000000000002E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="G4">
-        <v>6.5000000000000002E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="H4">
-        <v>6.5000000000000002E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">

--- a/InputData/trans/SoCDTtiNTY/Share of Cargo Dist Transported that is New This Year.xlsx
+++ b/InputData/trans/SoCDTtiNTY/Share of Cargo Dist Transported that is New This Year.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code Repositories\eps-us\InputData\trans\SoCDTtiNTY\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\RMI\Virginia\VA_Model\InputData\trans\SoCDTtiNTY\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{092B58A6-BADE-46DA-912F-6024BE5CBCE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="21075" windowHeight="10050"/>
+    <workbookView xWindow="345" yWindow="2925" windowWidth="9930" windowHeight="13770" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -104,7 +105,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -247,6 +248,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -282,6 +300,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -457,10 +492,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -528,13 +563,219 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.140625" customWidth="1"/>
+    <col min="2" max="8" width="14.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="C2">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="D2">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="E2">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="F2">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="G2">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="H2">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>4.3499999999999997E-2</v>
+      </c>
+      <c r="C3">
+        <v>4.3499999999999997E-2</v>
+      </c>
+      <c r="D3">
+        <v>4.3499999999999997E-2</v>
+      </c>
+      <c r="E3">
+        <v>4.3499999999999997E-2</v>
+      </c>
+      <c r="F3">
+        <v>4.3499999999999997E-2</v>
+      </c>
+      <c r="G3">
+        <v>4.3499999999999997E-2</v>
+      </c>
+      <c r="H3">
+        <v>4.3499999999999997E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>4.1599999999999998E-2</v>
+      </c>
+      <c r="C4">
+        <v>4.1599999999999998E-2</v>
+      </c>
+      <c r="D4">
+        <v>4.1599999999999998E-2</v>
+      </c>
+      <c r="E4">
+        <v>4.1599999999999998E-2</v>
+      </c>
+      <c r="F4">
+        <v>4.1599999999999998E-2</v>
+      </c>
+      <c r="G4">
+        <v>4.1599999999999998E-2</v>
+      </c>
+      <c r="H4">
+        <v>4.1599999999999998E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="C5">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="D5">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="E5">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="F5">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="G5">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="H5">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <v>2.9819999999999999E-2</v>
+      </c>
+      <c r="C6">
+        <v>2.9819999999999999E-2</v>
+      </c>
+      <c r="D6">
+        <v>2.9819999999999999E-2</v>
+      </c>
+      <c r="E6">
+        <v>2.9819999999999999E-2</v>
+      </c>
+      <c r="F6">
+        <v>2.9819999999999999E-2</v>
+      </c>
+      <c r="G6">
+        <v>2.9819999999999999E-2</v>
+      </c>
+      <c r="H6">
+        <v>2.9819999999999999E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7">
+        <v>5.8700000000000002E-2</v>
+      </c>
+      <c r="C7">
+        <v>5.8700000000000002E-2</v>
+      </c>
+      <c r="D7">
+        <v>5.8700000000000002E-2</v>
+      </c>
+      <c r="E7">
+        <v>5.8700000000000002E-2</v>
+      </c>
+      <c r="F7">
+        <v>5.8700000000000002E-2</v>
+      </c>
+      <c r="G7">
+        <v>5.8700000000000002E-2</v>
+      </c>
+      <c r="H7">
+        <v>5.8700000000000002E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr>
+    <tabColor theme="3"/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -573,25 +814,25 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>7.5999999999999998E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="C2">
-        <v>7.5999999999999998E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D2">
-        <v>7.5999999999999998E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E2">
-        <v>7.5999999999999998E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="F2">
-        <v>7.5999999999999998E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G2">
-        <v>7.5999999999999998E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="H2">
-        <v>7.5999999999999998E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -599,218 +840,16 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>4.3499999999999997E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="C3">
-        <v>4.3499999999999997E-2</v>
+        <v>0.13</v>
       </c>
       <c r="D3">
-        <v>4.3499999999999997E-2</v>
+        <v>0.13300000000000001</v>
       </c>
       <c r="E3">
-        <v>4.3499999999999997E-2</v>
-      </c>
-      <c r="F3">
-        <v>4.3499999999999997E-2</v>
-      </c>
-      <c r="G3">
-        <v>4.3499999999999997E-2</v>
-      </c>
-      <c r="H3">
-        <v>4.3499999999999997E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4">
-        <v>4.1599999999999998E-2</v>
-      </c>
-      <c r="C4">
-        <v>4.1599999999999998E-2</v>
-      </c>
-      <c r="D4">
-        <v>4.1599999999999998E-2</v>
-      </c>
-      <c r="E4">
-        <v>4.1599999999999998E-2</v>
-      </c>
-      <c r="F4">
-        <v>4.1599999999999998E-2</v>
-      </c>
-      <c r="G4">
-        <v>4.1599999999999998E-2</v>
-      </c>
-      <c r="H4">
-        <v>4.1599999999999998E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5">
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="C5">
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="D5">
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="E5">
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="F5">
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="G5">
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="H5">
-        <v>2.9000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6">
-        <v>2.9819999999999999E-2</v>
-      </c>
-      <c r="C6">
-        <v>2.9819999999999999E-2</v>
-      </c>
-      <c r="D6">
-        <v>2.9819999999999999E-2</v>
-      </c>
-      <c r="E6">
-        <v>2.9819999999999999E-2</v>
-      </c>
-      <c r="F6">
-        <v>2.9819999999999999E-2</v>
-      </c>
-      <c r="G6">
-        <v>2.9819999999999999E-2</v>
-      </c>
-      <c r="H6">
-        <v>2.9819999999999999E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7">
-        <v>5.8700000000000002E-2</v>
-      </c>
-      <c r="C7">
-        <v>5.8700000000000002E-2</v>
-      </c>
-      <c r="D7">
-        <v>5.8700000000000002E-2</v>
-      </c>
-      <c r="E7">
-        <v>5.8700000000000002E-2</v>
-      </c>
-      <c r="F7">
-        <v>5.8700000000000002E-2</v>
-      </c>
-      <c r="G7">
-        <v>5.8700000000000002E-2</v>
-      </c>
-      <c r="H7">
-        <v>5.8700000000000002E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="3"/>
-  </sheetPr>
-  <dimension ref="A1:H7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19.140625" customWidth="1"/>
-    <col min="2" max="8" width="14.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="C2">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="D2">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="E2">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="F2">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="G2">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="H2">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="C3">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="D3">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="E3">
-        <v>3.5000000000000003E-2</v>
+        <v>1.1299999999999999E-2</v>
       </c>
       <c r="F3">
         <v>3.5000000000000003E-2</v>

--- a/InputData/trans/SoCDTtiNTY/Share of Cargo Dist Transported that is New This Year.xlsx
+++ b/InputData/trans/SoCDTtiNTY/Share of Cargo Dist Transported that is New This Year.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\RMI\Virginia\VA_Model\InputData\trans\SoCDTtiNTY\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-us\InputData\trans\SoCDTtiNTY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{092B58A6-BADE-46DA-912F-6024BE5CBCE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="2925" windowWidth="9930" windowHeight="13770" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="105" windowWidth="21075" windowHeight="10050"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -105,7 +104,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -248,23 +247,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -300,23 +282,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -492,19 +457,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -512,47 +477,47 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -563,101 +528,101 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="19.140625" customWidth="1"/>
-    <col min="2" max="8" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="19.1328125" customWidth="1"/>
+    <col min="2" max="8" width="14.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>12</v>
       </c>
       <c r="B2">
-        <v>7.4999999999999997E-2</v>
+        <v>7.5999999999999998E-2</v>
       </c>
       <c r="C2">
-        <v>7.4999999999999997E-2</v>
+        <v>7.5999999999999998E-2</v>
       </c>
       <c r="D2">
-        <v>7.4999999999999997E-2</v>
+        <v>7.8E-2</v>
       </c>
       <c r="E2">
-        <v>7.4999999999999997E-2</v>
+        <v>7.5999999999999998E-2</v>
       </c>
       <c r="F2">
-        <v>7.4999999999999997E-2</v>
+        <v>7.5999999999999998E-2</v>
       </c>
       <c r="G2">
-        <v>7.4999999999999997E-2</v>
+        <v>7.5999999999999998E-2</v>
       </c>
       <c r="H2">
-        <v>7.4999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>7.5999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>13</v>
       </c>
       <c r="B3">
-        <v>4.3499999999999997E-2</v>
+        <v>4.2700000000000002E-2</v>
       </c>
       <c r="C3">
-        <v>4.3499999999999997E-2</v>
+        <v>4.2700000000000002E-2</v>
       </c>
       <c r="D3">
-        <v>4.3499999999999997E-2</v>
+        <v>4.2700000000000002E-2</v>
       </c>
       <c r="E3">
-        <v>4.3499999999999997E-2</v>
+        <v>4.2700000000000002E-2</v>
       </c>
       <c r="F3">
-        <v>4.3499999999999997E-2</v>
+        <v>4.2700000000000002E-2</v>
       </c>
       <c r="G3">
-        <v>4.3499999999999997E-2</v>
+        <v>4.2700000000000002E-2</v>
       </c>
       <c r="H3">
-        <v>4.3499999999999997E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>4.2700000000000002E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -683,7 +648,7 @@
         <v>4.1599999999999998E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -709,7 +674,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -735,7 +700,7 @@
         <v>2.9819999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -746,7 +711,7 @@
         <v>5.8700000000000002E-2</v>
       </c>
       <c r="D7">
-        <v>5.8700000000000002E-2</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="E7">
         <v>5.8700000000000002E-2</v>
@@ -767,23 +732,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2:H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="19.140625" customWidth="1"/>
-    <col min="2" max="8" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="19.1328125" customWidth="1"/>
+    <col min="2" max="8" width="14.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -809,59 +774,59 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>12</v>
       </c>
       <c r="B2">
-        <v>7.0000000000000007E-2</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="C2">
-        <v>7.0000000000000007E-2</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="D2">
-        <v>7.0000000000000007E-2</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="E2">
-        <v>7.0000000000000007E-2</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="F2">
-        <v>7.0000000000000007E-2</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="G2">
-        <v>7.0000000000000007E-2</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="H2">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>7.1999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>13</v>
       </c>
       <c r="B3">
-        <v>3.5000000000000003E-2</v>
+        <v>3.5499999999999997E-2</v>
       </c>
       <c r="C3">
-        <v>0.13</v>
+        <v>3.5499999999999997E-2</v>
       </c>
       <c r="D3">
-        <v>0.13300000000000001</v>
+        <v>3.5499999999999997E-2</v>
       </c>
       <c r="E3">
-        <v>1.1299999999999999E-2</v>
+        <v>3.5499999999999997E-2</v>
       </c>
       <c r="F3">
-        <v>3.5000000000000003E-2</v>
+        <v>3.5499999999999997E-2</v>
       </c>
       <c r="G3">
-        <v>3.5000000000000003E-2</v>
+        <v>3.5499999999999997E-2</v>
       </c>
       <c r="H3">
-        <v>3.5000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3.5499999999999997E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -887,7 +852,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -913,7 +878,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -939,7 +904,7 @@
         <v>3.0300000000000001E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>17</v>
       </c>

--- a/InputData/trans/SoCDTtiNTY/Share of Cargo Dist Transported that is New This Year.xlsx
+++ b/InputData/trans/SoCDTtiNTY/Share of Cargo Dist Transported that is New This Year.xlsx
@@ -1,27 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11201"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-us\InputData\trans\SoCDTtiNTY\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaggarwal/Library/Containers/com.microsoft.Excel/Data/state-eps-data-repository/NV/trans/SoCDTtiNTY/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{49214C3A-2D13-DD48-811E-02E6A9DD3C90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="21075" windowHeight="10050"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="SoCDTtiNTY-psgr" sheetId="2" r:id="rId2"/>
     <sheet name="SoCDTtiNTY-frgt" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="27">
   <si>
     <t>SoCDTtiNTY Share of Cargo Dist Transported that is New This Year</t>
   </si>
@@ -99,12 +111,15 @@
   </si>
   <si>
     <t>hydrogen vehicle</t>
+  </si>
+  <si>
+    <t>Nevada</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -142,7 +157,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -154,6 +169,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -172,7 +188,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -247,6 +263,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -282,6 +315,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -457,19 +507,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="5">
+        <v>44907</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -477,47 +535,47 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -528,23 +586,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:H7"/>
+      <selection activeCell="B3" sqref="B3:H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.1328125" customWidth="1"/>
-    <col min="2" max="8" width="14.3984375" customWidth="1"/>
+    <col min="1" max="1" width="19.1640625" customWidth="1"/>
+    <col min="2" max="8" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -570,59 +628,59 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
       <c r="B2">
-        <v>7.5999999999999998E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="C2">
-        <v>7.5999999999999998E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="D2">
-        <v>7.8E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="E2">
-        <v>7.5999999999999998E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="F2">
-        <v>7.5999999999999998E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="G2">
-        <v>7.5999999999999998E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="H2">
-        <v>7.5999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+        <v>6.5000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>13</v>
       </c>
       <c r="B3">
-        <v>4.2700000000000002E-2</v>
+        <v>0.09</v>
       </c>
       <c r="C3">
-        <v>4.2700000000000002E-2</v>
+        <v>0.09</v>
       </c>
       <c r="D3">
-        <v>4.2700000000000002E-2</v>
+        <v>0.09</v>
       </c>
       <c r="E3">
-        <v>4.2700000000000002E-2</v>
+        <v>0.09</v>
       </c>
       <c r="F3">
-        <v>4.2700000000000002E-2</v>
+        <v>0.09</v>
       </c>
       <c r="G3">
-        <v>4.2700000000000002E-2</v>
+        <v>0.09</v>
       </c>
       <c r="H3">
-        <v>4.2700000000000002E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -648,7 +706,7 @@
         <v>4.1599999999999998E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -674,7 +732,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -700,7 +758,7 @@
         <v>2.9819999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -711,7 +769,7 @@
         <v>5.8700000000000002E-2</v>
       </c>
       <c r="D7">
-        <v>5.8000000000000003E-2</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="E7">
         <v>5.8700000000000002E-2</v>
@@ -732,23 +790,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:H7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.1328125" customWidth="1"/>
-    <col min="2" max="8" width="14.3984375" customWidth="1"/>
+    <col min="1" max="1" width="19.1640625" customWidth="1"/>
+    <col min="2" max="8" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -774,7 +832,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -800,59 +858,59 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>13</v>
       </c>
       <c r="B3">
-        <v>3.5499999999999997E-2</v>
+        <v>5.7500000000000002E-2</v>
       </c>
       <c r="C3">
-        <v>3.5499999999999997E-2</v>
+        <v>5.7500000000000002E-2</v>
       </c>
       <c r="D3">
-        <v>3.5499999999999997E-2</v>
+        <v>5.7500000000000002E-2</v>
       </c>
       <c r="E3">
-        <v>3.5499999999999997E-2</v>
+        <v>5.7500000000000002E-2</v>
       </c>
       <c r="F3">
-        <v>3.5499999999999997E-2</v>
+        <v>5.7500000000000002E-2</v>
       </c>
       <c r="G3">
-        <v>3.5499999999999997E-2</v>
+        <v>5.7500000000000002E-2</v>
       </c>
       <c r="H3">
-        <v>3.5499999999999997E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+        <v>5.7500000000000002E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>14</v>
       </c>
       <c r="B4">
-        <v>4.2000000000000003E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="C4">
-        <v>4.2000000000000003E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="D4">
-        <v>4.2000000000000003E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="E4">
-        <v>4.2000000000000003E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="F4">
-        <v>4.2000000000000003E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="G4">
-        <v>4.2000000000000003E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="H4">
-        <v>4.2000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -878,7 +936,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -904,7 +962,7 @@
         <v>3.0300000000000001E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>17</v>
       </c>

--- a/InputData/trans/SoCDTtiNTY/Share of Cargo Dist Transported that is New This Year.xlsx
+++ b/InputData/trans/SoCDTtiNTY/Share of Cargo Dist Transported that is New This Year.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathaniyer/Library/Containers/com.microsoft.Excel/Data/state-eps-data-repository/NV/trans/SoCDTtiNTY/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\NV\trans\SoCDTtiNTY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CCD0E0BA-D72D-6443-B4A0-8B3206AEB81A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A39F0AF0-C93E-426A-BCAD-305C5FFDFF9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="15980" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -480,9 +480,9 @@
       <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -490,10 +490,10 @@
         <v>26</v>
       </c>
       <c r="C1" s="5">
-        <v>45295</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>45475</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -501,47 +501,47 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.75">
       <c r="B4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.75">
       <c r="B5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -559,16 +559,16 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:H3"/>
+      <selection activeCell="B2" sqref="B2:H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="19.1640625" customWidth="1"/>
-    <col min="2" max="8" width="14.5" customWidth="1"/>
+    <col min="1" max="1" width="19.1328125" customWidth="1"/>
+    <col min="2" max="8" width="14.40625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -594,33 +594,33 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>12</v>
       </c>
       <c r="B2">
-        <v>6.5000000000000002E-2</v>
+        <v>6.2E-2</v>
       </c>
       <c r="C2">
-        <v>6.5000000000000002E-2</v>
+        <v>6.2E-2</v>
       </c>
       <c r="D2">
-        <v>6.5000000000000002E-2</v>
+        <v>6.2E-2</v>
       </c>
       <c r="E2">
-        <v>6.5000000000000002E-2</v>
+        <v>6.2E-2</v>
       </c>
       <c r="F2">
-        <v>6.5000000000000002E-2</v>
+        <v>6.2E-2</v>
       </c>
       <c r="G2">
-        <v>6.5000000000000002E-2</v>
+        <v>6.2E-2</v>
       </c>
       <c r="H2">
-        <v>6.5000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+        <v>6.2E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -646,7 +646,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -672,7 +672,7 @@
         <v>4.1599999999999998E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -698,7 +698,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -724,7 +724,7 @@
         <v>2.9819999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -766,13 +766,13 @@
       <selection activeCell="B3" sqref="B3:H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="19.1640625" customWidth="1"/>
-    <col min="2" max="8" width="14.5" customWidth="1"/>
+    <col min="1" max="1" width="19.1328125" customWidth="1"/>
+    <col min="2" max="8" width="14.40625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -798,7 +798,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -824,33 +824,33 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>13</v>
       </c>
       <c r="B3">
-        <v>5.7500000000000002E-2</v>
+        <v>5.5E-2</v>
       </c>
       <c r="C3">
-        <v>5.7500000000000002E-2</v>
+        <v>5.5E-2</v>
       </c>
       <c r="D3">
-        <v>5.7500000000000002E-2</v>
+        <v>5.5E-2</v>
       </c>
       <c r="E3">
-        <v>5.7500000000000002E-2</v>
+        <v>5.5E-2</v>
       </c>
       <c r="F3">
-        <v>5.7500000000000002E-2</v>
+        <v>5.5E-2</v>
       </c>
       <c r="G3">
-        <v>5.7500000000000002E-2</v>
+        <v>5.5E-2</v>
       </c>
       <c r="H3">
-        <v>5.7500000000000002E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+        <v>5.5E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -876,7 +876,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -902,7 +902,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -928,7 +928,7 @@
         <v>3.0300000000000001E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>17</v>
       </c>

--- a/InputData/trans/SoCDTtiNTY/Share of Cargo Dist Transported that is New This Year.xlsx
+++ b/InputData/trans/SoCDTtiNTY/Share of Cargo Dist Transported that is New This Year.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\NV\trans\SoCDTtiNTY\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganMahajan\Documents\eps-us\InputData\trans\SoCDTtiNTY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A39F0AF0-C93E-426A-BCAD-305C5FFDFF9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B539881-35F2-4ACF-93AE-EB11A251A4DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
   <si>
     <t>SoCDTtiNTY Share of Cargo Dist Transported that is New This Year</t>
   </si>
@@ -111,9 +111,6 @@
   </si>
   <si>
     <t>hydrogen vehicle</t>
-  </si>
-  <si>
-    <t>Nevada</t>
   </si>
 </sst>
 </file>
@@ -157,7 +154,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -169,7 +166,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -474,26 +470,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="5">
-        <v>45475</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.75">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -501,47 +491,47 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -559,16 +549,16 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:H2"/>
+      <selection activeCell="B7" sqref="B7:H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.1328125" customWidth="1"/>
-    <col min="2" max="8" width="14.40625" customWidth="1"/>
+    <col min="1" max="1" width="19.140625" customWidth="1"/>
+    <col min="2" max="8" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -594,33 +584,40 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
       <c r="B2">
-        <v>6.2E-2</v>
+        <f>1/17</f>
+        <v>5.8823529411764705E-2</v>
       </c>
       <c r="C2">
-        <v>6.2E-2</v>
+        <f t="shared" ref="C2:H2" si="0">1/17</f>
+        <v>5.8823529411764705E-2</v>
       </c>
       <c r="D2">
-        <v>6.2E-2</v>
+        <f t="shared" si="0"/>
+        <v>5.8823529411764705E-2</v>
       </c>
       <c r="E2">
-        <v>6.2E-2</v>
+        <f t="shared" si="0"/>
+        <v>5.8823529411764705E-2</v>
       </c>
       <c r="F2">
-        <v>6.2E-2</v>
+        <f t="shared" si="0"/>
+        <v>5.8823529411764705E-2</v>
       </c>
       <c r="G2">
-        <v>6.2E-2</v>
+        <f t="shared" si="0"/>
+        <v>5.8823529411764705E-2</v>
       </c>
       <c r="H2">
-        <v>6.2E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.75">
+        <f t="shared" si="0"/>
+        <v>5.8823529411764705E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -646,7 +643,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -672,7 +669,7 @@
         <v>4.1599999999999998E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -698,7 +695,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -724,30 +721,30 @@
         <v>2.9819999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
       <c r="B7">
-        <v>5.8700000000000002E-2</v>
+        <v>5.8500000000000003E-2</v>
       </c>
       <c r="C7">
-        <v>5.8700000000000002E-2</v>
+        <v>5.8500000000000003E-2</v>
       </c>
       <c r="D7">
-        <v>6.8000000000000005E-2</v>
+        <v>5.8500000000000003E-2</v>
       </c>
       <c r="E7">
-        <v>5.8700000000000002E-2</v>
+        <v>5.8500000000000003E-2</v>
       </c>
       <c r="F7">
-        <v>5.8700000000000002E-2</v>
+        <v>5.8500000000000003E-2</v>
       </c>
       <c r="G7">
-        <v>5.8700000000000002E-2</v>
+        <v>5.8500000000000003E-2</v>
       </c>
       <c r="H7">
-        <v>5.8700000000000002E-2</v>
+        <v>5.8500000000000003E-2</v>
       </c>
     </row>
   </sheetData>
@@ -762,17 +759,17 @@
   </sheetPr>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:H3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.1328125" customWidth="1"/>
-    <col min="2" max="8" width="14.40625" customWidth="1"/>
+    <col min="1" max="1" width="19.140625" customWidth="1"/>
+    <col min="2" max="8" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -798,59 +795,73 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
       <c r="B2">
-        <v>7.1999999999999995E-2</v>
+        <f>1/17</f>
+        <v>5.8823529411764705E-2</v>
       </c>
       <c r="C2">
-        <v>7.1999999999999995E-2</v>
+        <f t="shared" ref="C2:H2" si="0">1/17</f>
+        <v>5.8823529411764705E-2</v>
       </c>
       <c r="D2">
-        <v>7.1999999999999995E-2</v>
+        <f t="shared" si="0"/>
+        <v>5.8823529411764705E-2</v>
       </c>
       <c r="E2">
-        <v>7.1999999999999995E-2</v>
+        <f t="shared" si="0"/>
+        <v>5.8823529411764705E-2</v>
       </c>
       <c r="F2">
-        <v>7.1999999999999995E-2</v>
+        <f t="shared" si="0"/>
+        <v>5.8823529411764705E-2</v>
       </c>
       <c r="G2">
-        <v>7.1999999999999995E-2</v>
+        <f t="shared" si="0"/>
+        <v>5.8823529411764705E-2</v>
       </c>
       <c r="H2">
-        <v>7.1999999999999995E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.75">
+        <f t="shared" si="0"/>
+        <v>5.8823529411764705E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
       <c r="B3">
-        <v>5.5E-2</v>
+        <f>1/19</f>
+        <v>5.2631578947368418E-2</v>
       </c>
       <c r="C3">
-        <v>5.5E-2</v>
+        <f t="shared" ref="C3:H3" si="1">1/19</f>
+        <v>5.2631578947368418E-2</v>
       </c>
       <c r="D3">
-        <v>5.5E-2</v>
+        <f t="shared" si="1"/>
+        <v>5.2631578947368418E-2</v>
       </c>
       <c r="E3">
-        <v>5.5E-2</v>
+        <f t="shared" si="1"/>
+        <v>5.2631578947368418E-2</v>
       </c>
       <c r="F3">
-        <v>5.5E-2</v>
+        <f t="shared" si="1"/>
+        <v>5.2631578947368418E-2</v>
       </c>
       <c r="G3">
-        <v>5.5E-2</v>
+        <f t="shared" si="1"/>
+        <v>5.2631578947368418E-2</v>
       </c>
       <c r="H3">
-        <v>5.5E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.75">
+        <f t="shared" si="1"/>
+        <v>5.2631578947368418E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -876,7 +887,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -902,7 +913,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -928,7 +939,7 @@
         <v>3.0300000000000001E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>

--- a/InputData/trans/SoCDTtiNTY/Share of Cargo Dist Transported that is New This Year.xlsx
+++ b/InputData/trans/SoCDTtiNTY/Share of Cargo Dist Transported that is New This Year.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganMahajan\Documents\eps-us\InputData\trans\SoCDTtiNTY\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\NV\trans\SoCDTtiNTY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B539881-35F2-4ACF-93AE-EB11A251A4DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A39F0AF0-C93E-426A-BCAD-305C5FFDFF9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="27">
   <si>
     <t>SoCDTtiNTY Share of Cargo Dist Transported that is New This Year</t>
   </si>
@@ -111,6 +111,9 @@
   </si>
   <si>
     <t>hydrogen vehicle</t>
+  </si>
+  <si>
+    <t>Nevada</t>
   </si>
 </sst>
 </file>
@@ -154,7 +157,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -166,6 +169,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -470,20 +474,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="5">
+        <v>45475</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -491,47 +501,47 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.75">
       <c r="B4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.75">
       <c r="B5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -549,16 +559,16 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:H7"/>
+      <selection activeCell="B2" sqref="B2:H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="19.140625" customWidth="1"/>
-    <col min="2" max="8" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="19.1328125" customWidth="1"/>
+    <col min="2" max="8" width="14.40625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -584,40 +594,33 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>12</v>
       </c>
       <c r="B2">
-        <f>1/17</f>
-        <v>5.8823529411764705E-2</v>
+        <v>6.2E-2</v>
       </c>
       <c r="C2">
-        <f t="shared" ref="C2:H2" si="0">1/17</f>
-        <v>5.8823529411764705E-2</v>
+        <v>6.2E-2</v>
       </c>
       <c r="D2">
-        <f t="shared" si="0"/>
-        <v>5.8823529411764705E-2</v>
+        <v>6.2E-2</v>
       </c>
       <c r="E2">
-        <f t="shared" si="0"/>
-        <v>5.8823529411764705E-2</v>
+        <v>6.2E-2</v>
       </c>
       <c r="F2">
-        <f t="shared" si="0"/>
-        <v>5.8823529411764705E-2</v>
+        <v>6.2E-2</v>
       </c>
       <c r="G2">
-        <f t="shared" si="0"/>
-        <v>5.8823529411764705E-2</v>
+        <v>6.2E-2</v>
       </c>
       <c r="H2">
-        <f t="shared" si="0"/>
-        <v>5.8823529411764705E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>6.2E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -643,7 +646,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -669,7 +672,7 @@
         <v>4.1599999999999998E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -695,7 +698,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -721,30 +724,30 @@
         <v>2.9819999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>17</v>
       </c>
       <c r="B7">
-        <v>5.8500000000000003E-2</v>
+        <v>5.8700000000000002E-2</v>
       </c>
       <c r="C7">
-        <v>5.8500000000000003E-2</v>
+        <v>5.8700000000000002E-2</v>
       </c>
       <c r="D7">
-        <v>5.8500000000000003E-2</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="E7">
-        <v>5.8500000000000003E-2</v>
+        <v>5.8700000000000002E-2</v>
       </c>
       <c r="F7">
-        <v>5.8500000000000003E-2</v>
+        <v>5.8700000000000002E-2</v>
       </c>
       <c r="G7">
-        <v>5.8500000000000003E-2</v>
+        <v>5.8700000000000002E-2</v>
       </c>
       <c r="H7">
-        <v>5.8500000000000003E-2</v>
+        <v>5.8700000000000002E-2</v>
       </c>
     </row>
   </sheetData>
@@ -759,17 +762,17 @@
   </sheetPr>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:H3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="19.140625" customWidth="1"/>
-    <col min="2" max="8" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="19.1328125" customWidth="1"/>
+    <col min="2" max="8" width="14.40625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -795,73 +798,59 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>12</v>
       </c>
       <c r="B2">
-        <f>1/17</f>
-        <v>5.8823529411764705E-2</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="C2">
-        <f t="shared" ref="C2:H2" si="0">1/17</f>
-        <v>5.8823529411764705E-2</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="D2">
-        <f t="shared" si="0"/>
-        <v>5.8823529411764705E-2</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="E2">
-        <f t="shared" si="0"/>
-        <v>5.8823529411764705E-2</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="F2">
-        <f t="shared" si="0"/>
-        <v>5.8823529411764705E-2</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="G2">
-        <f t="shared" si="0"/>
-        <v>5.8823529411764705E-2</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="H2">
-        <f t="shared" si="0"/>
-        <v>5.8823529411764705E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>7.1999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>13</v>
       </c>
       <c r="B3">
-        <f>1/19</f>
-        <v>5.2631578947368418E-2</v>
+        <v>5.5E-2</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:H3" si="1">1/19</f>
-        <v>5.2631578947368418E-2</v>
+        <v>5.5E-2</v>
       </c>
       <c r="D3">
-        <f t="shared" si="1"/>
-        <v>5.2631578947368418E-2</v>
+        <v>5.5E-2</v>
       </c>
       <c r="E3">
-        <f t="shared" si="1"/>
-        <v>5.2631578947368418E-2</v>
+        <v>5.5E-2</v>
       </c>
       <c r="F3">
-        <f t="shared" si="1"/>
-        <v>5.2631578947368418E-2</v>
+        <v>5.5E-2</v>
       </c>
       <c r="G3">
-        <f t="shared" si="1"/>
-        <v>5.2631578947368418E-2</v>
+        <v>5.5E-2</v>
       </c>
       <c r="H3">
-        <f t="shared" si="1"/>
-        <v>5.2631578947368418E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>5.5E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -887,7 +876,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -913,7 +902,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -939,7 +928,7 @@
         <v>3.0300000000000001E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>17</v>
       </c>
